--- a/Ajout-RC/ig/StructureDefinition-dmi-device.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-device.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-24T10:11:35+00:00</t>
+    <t>2026-02-24T10:44:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>FRANCE</t>
+    <t>France</t>
   </si>
   <si>
     <t>Description</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-device.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-device.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-24T10:44:05+00:00</t>
+    <t>2026-02-24T16:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-device.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T08:15:31+00:00</t>
+    <t>2026-02-25T08:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-device.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T08:31:26+00:00</t>
+    <t>2026-02-25T08:48:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Ajout-RC/ig/StructureDefinition-dmi-device.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-device.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2425" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2460" uniqueCount="391">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T08:48:17+00:00</t>
+    <t>2026-02-26T17:10:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -471,6 +471,22 @@
   </si>
   <si>
     <t>Extension créée dans ce volet pour représenter le marquage CE.</t>
+  </si>
+  <si>
+    <t>Device.extension:CodeEMDN</t>
+  </si>
+  <si>
+    <t>CodeEMDN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tdmi/StructureDefinition/dmi-code-emdn}
+</t>
+  </si>
+  <si>
+    <t>DMI Code EMDN</t>
+  </si>
+  <si>
+    <t>Extension créée dans ce volet pour représenter le code EMDN.</t>
   </si>
   <si>
     <t>Device.modifierExtension</t>
@@ -1533,7 +1549,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM69"/>
+  <dimension ref="A1:AM70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2808,43 +2824,41 @@
         <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>76</v>
       </c>
@@ -2892,7 +2906,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2901,13 +2915,13 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>76</v>
@@ -2918,14 +2932,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -2938,24 +2952,26 @@
         <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="N13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>76</v>
       </c>
@@ -3003,7 +3019,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3015,24 +3031,24 @@
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>161</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3043,7 +3059,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
@@ -3055,15 +3071,17 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -3112,13 +3130,13 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
@@ -3127,21 +3145,21 @@
         <v>96</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3152,7 +3170,7 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -3161,20 +3179,18 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N15" t="s" s="2">
         <v>170</v>
       </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3223,13 +3239,13 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
@@ -3238,10 +3254,10 @@
         <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>76</v>
@@ -3249,10 +3265,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3263,7 +3279,7 @@
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -3272,18 +3288,20 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3332,25 +3350,25 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="AL16" t="s" s="2">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
@@ -3358,21 +3376,21 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3384,7 +3402,7 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>179</v>
@@ -3392,9 +3410,7 @@
       <c r="M17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N17" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3449,16 +3465,16 @@
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3469,14 +3485,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3489,10 +3505,10 @@
         <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>129</v>
@@ -3504,11 +3520,9 @@
         <v>185</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3571,7 +3585,7 @@
         <v>135</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3596,19 +3610,19 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>189</v>
@@ -3616,8 +3630,12 @@
       <c r="M19" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3665,40 +3683,40 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>191</v>
+        <v>127</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>193</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3714,16 +3732,16 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3774,7 +3792,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3789,25 +3807,25 @@
         <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3835,9 +3853,7 @@
         <v>202</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3885,7 +3901,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3900,13 +3916,13 @@
         <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -3918,7 +3934,7 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -3934,21 +3950,21 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4011,25 +4027,25 @@
         <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4048,16 +4064,16 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4107,7 +4123,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4122,25 +4138,25 @@
         <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4156,10 +4172,10 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>219</v>
@@ -4167,10 +4183,10 @@
       <c r="M24" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>221</v>
       </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4194,13 +4210,13 @@
         <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>76</v>
@@ -4218,7 +4234,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4233,21 +4249,21 @@
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4264,24 +4280,24 @@
         <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>104</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4305,13 +4321,13 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4329,7 +4345,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4344,10 +4360,10 @@
         <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4355,10 +4371,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4369,27 +4385,29 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>104</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4414,13 +4432,13 @@
         <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>76</v>
@@ -4438,13 +4456,13 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
@@ -4453,10 +4471,10 @@
         <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4464,21 +4482,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>242</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4490,17 +4508,15 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4525,13 +4541,13 @@
         <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>76</v>
@@ -4549,13 +4565,13 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
@@ -4564,25 +4580,25 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>247</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4601,15 +4617,17 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4658,7 +4676,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4676,18 +4694,18 @@
         <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>127</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4710,7 +4728,7 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>253</v>
+        <v>178</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>254</v>
@@ -4767,7 +4785,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4785,18 +4803,18 @@
         <v>256</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>257</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4819,7 +4837,7 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>259</v>
@@ -4876,7 +4894,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4894,7 +4912,7 @@
         <v>261</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>262</v>
@@ -4928,7 +4946,7 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s" s="2">
         <v>264</v>
@@ -5000,21 +5018,21 @@
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>247</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5037,17 +5055,15 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5096,7 +5112,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5111,13 +5127,13 @@
         <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33">
@@ -5136,7 +5152,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5148,7 +5164,7 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>272</v>
@@ -5156,7 +5172,9 @@
       <c r="M33" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="N33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5211,7 +5229,7 @@
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
@@ -5220,10 +5238,10 @@
         <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5231,10 +5249,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5245,7 +5263,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5257,13 +5275,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>174</v>
+        <v>277</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>175</v>
+        <v>278</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5314,22 +5332,22 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>176</v>
+        <v>276</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5340,21 +5358,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5366,7 +5384,7 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>179</v>
@@ -5374,9 +5392,7 @@
       <c r="M35" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N35" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5431,16 +5447,16 @@
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5451,14 +5467,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5471,10 +5487,10 @@
         <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>129</v>
@@ -5486,11 +5502,9 @@
         <v>185</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5553,7 +5567,7 @@
         <v>135</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5564,42 +5578,46 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>278</v>
+        <v>188</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>279</v>
+        <v>189</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5647,22 +5665,22 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5673,14 +5691,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -5699,13 +5717,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5732,13 +5750,13 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
@@ -5756,7 +5774,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>84</v>
@@ -5771,10 +5789,10 @@
         <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -5782,10 +5800,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5793,7 +5811,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>84</v>
@@ -5808,13 +5826,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5841,13 +5859,13 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -5865,10 +5883,10 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>84</v>
@@ -5880,10 +5898,10 @@
         <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
@@ -5891,10 +5909,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5917,17 +5935,15 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -5976,7 +5992,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5991,10 +6007,10 @@
         <v>96</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6002,10 +6018,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6028,15 +6044,17 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6061,13 +6079,13 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
@@ -6085,7 +6103,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6100,10 +6118,10 @@
         <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6111,10 +6129,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6125,7 +6143,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -6137,13 +6155,13 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6170,13 +6188,13 @@
         <v>76</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>76</v>
@@ -6194,13 +6212,13 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
@@ -6220,10 +6238,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6234,7 +6252,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6246,13 +6264,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>174</v>
+        <v>306</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>175</v>
+        <v>307</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6303,22 +6321,22 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>176</v>
+        <v>305</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6329,21 +6347,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6355,7 +6373,7 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>179</v>
@@ -6363,9 +6381,7 @@
       <c r="M44" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N44" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6420,16 +6436,16 @@
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6440,14 +6456,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6460,10 +6476,10 @@
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>129</v>
@@ -6475,11 +6491,9 @@
         <v>185</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6542,7 +6556,7 @@
         <v>135</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6553,42 +6567,46 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>278</v>
+        <v>188</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>307</v>
+        <v>189</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6636,22 +6654,22 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>306</v>
+        <v>191</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6662,18 +6680,18 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>84</v>
@@ -6688,13 +6706,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>173</v>
+        <v>240</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6745,10 +6763,10 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>84</v>
@@ -6763,7 +6781,7 @@
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -6771,10 +6789,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6785,7 +6803,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -6797,13 +6815,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6854,13 +6872,13 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
@@ -6872,7 +6890,7 @@
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -6880,10 +6898,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6894,7 +6912,7 @@
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -6906,13 +6924,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>174</v>
+        <v>318</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6963,22 +6981,22 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>176</v>
+        <v>317</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -6989,21 +7007,21 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7015,7 +7033,7 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>179</v>
@@ -7023,9 +7041,7 @@
       <c r="M50" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N50" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7080,16 +7096,16 @@
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7100,14 +7116,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7120,10 +7136,10 @@
         <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>129</v>
@@ -7135,11 +7151,9 @@
         <v>185</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7202,7 +7216,7 @@
         <v>135</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7213,42 +7227,46 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>278</v>
+        <v>188</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>319</v>
+        <v>189</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7296,22 +7314,22 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>318</v>
+        <v>191</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7322,14 +7340,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7348,13 +7366,13 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7405,7 +7423,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7423,7 +7441,7 @@
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7431,10 +7449,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7442,7 +7460,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>84</v>
@@ -7457,13 +7475,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7514,10 +7532,10 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>84</v>
@@ -7532,7 +7550,7 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -7540,10 +7558,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7551,10 +7569,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7566,13 +7584,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7623,13 +7641,13 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
@@ -7649,10 +7667,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7663,7 +7681,7 @@
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -7675,13 +7693,13 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>174</v>
+        <v>333</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>175</v>
+        <v>334</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7732,22 +7750,22 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>176</v>
+        <v>332</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -7758,21 +7776,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -7784,7 +7802,7 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>179</v>
@@ -7792,9 +7810,7 @@
       <c r="M57" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N57" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -7849,16 +7865,16 @@
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
@@ -7869,14 +7885,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7889,10 +7905,10 @@
         <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>129</v>
@@ -7904,11 +7920,9 @@
         <v>185</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>76</v>
       </c>
@@ -7971,7 +7985,7 @@
         <v>135</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
@@ -7982,42 +7996,46 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>334</v>
+        <v>189</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8065,22 +8083,22 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>333</v>
+        <v>191</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -8091,10 +8109,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8102,10 +8120,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8117,13 +8135,13 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>337</v>
+        <v>240</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8174,13 +8192,13 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>76</v>
@@ -8200,10 +8218,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8226,13 +8244,13 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>235</v>
+        <v>342</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8283,7 +8301,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8309,10 +8327,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8323,7 +8341,7 @@
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8335,18 +8353,16 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>344</v>
+        <v>240</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N62" s="2"/>
-      <c r="O62" t="s" s="2">
-        <v>347</v>
-      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>76</v>
       </c>
@@ -8394,13 +8410,13 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>76</v>
@@ -8409,10 +8425,10 @@
         <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>348</v>
+        <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>349</v>
+        <v>76</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>76</v>
@@ -8420,10 +8436,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8446,16 +8462,18 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>76</v>
       </c>
@@ -8503,7 +8521,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -8518,10 +8536,10 @@
         <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>76</v>
@@ -8529,10 +8547,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8543,7 +8561,7 @@
         <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>76</v>
@@ -8555,17 +8573,15 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>360</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -8614,13 +8630,13 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>76</v>
@@ -8629,10 +8645,10 @@
         <v>96</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>76</v>
@@ -8640,10 +8656,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8654,7 +8670,7 @@
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -8666,18 +8682,18 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>366</v>
-      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>76</v>
       </c>
@@ -8725,13 +8741,13 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>76</v>
@@ -8740,10 +8756,10 @@
         <v>96</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>76</v>
@@ -8751,10 +8767,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8777,18 +8793,18 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>98</v>
+        <v>368</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="N66" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>76</v>
       </c>
@@ -8836,7 +8852,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -8851,10 +8867,10 @@
         <v>96</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>76</v>
@@ -8876,7 +8892,7 @@
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
@@ -8888,15 +8904,17 @@
         <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>76</v>
@@ -8951,7 +8969,7 @@
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>76</v>
@@ -8963,7 +8981,7 @@
         <v>378</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>76</v>
+        <v>373</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>76</v>
@@ -8994,16 +9012,16 @@
         <v>76</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>235</v>
+        <v>380</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9069,7 +9087,7 @@
         <v>96</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>225</v>
+        <v>383</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -9080,10 +9098,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9094,7 +9112,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>76</v>
@@ -9103,16 +9121,16 @@
         <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>383</v>
+        <v>240</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9163,13 +9181,13 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>76</v>
@@ -9178,12 +9196,121 @@
         <v>96</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/Ajout-RC/ig/StructureDefinition-dmi-device.xlsx
+++ b/Ajout-RC/ig/StructureDefinition-dmi-device.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-26T17:10:09+00:00</t>
+    <t>2026-02-27T10:05:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
